--- a/StructureDefinition-ext-R5-DeviceUsage.status.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-DeviceUsage.status.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `DeviceUseStatement.status` 1..1 `code`
 Following are the generation technical comments:
 Note that the target element context `DeviceUseStatement.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `DeviceUsage.status` is mapped to FHIR R4 element `DeviceUseStatement.status`.</t>
+Element `DeviceUsage.status` has is mapped to FHIR R4 element `DeviceUseStatement.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-DeviceUsage.status.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -376,7 +376,7 @@
     <t>A coded concept indicating the current status of the Device Usage.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-deviceusage-status-for-R4-device-statement-status|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-deviceusage-status-for-R4-device-statement-status</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -731,7 +731,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="93.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.73046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceUsage.status.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `DeviceUseStatement.status` 1..1 `code`
 Following are the generation technical comments:
 Note that the target element context `DeviceUseStatement.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `DeviceUsage.status` has is mapped to FHIR R4 element `DeviceUseStatement.status`, but has no comparisons.</t>
+Element `DeviceUsage.status` is mapped to FHIR R4 element `DeviceUseStatement.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -376,7 +376,7 @@
     <t>A coded concept indicating the current status of the Device Usage.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-deviceusage-status-for-R4-device-statement-status</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-deviceusage-status-for-R4-device-statement-status|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -731,7 +731,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
